--- a/Lab 4/Hertz/DataHertz.xlsx
+++ b/Lab 4/Hertz/DataHertz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbien.DESKTOP-6FMEAR7\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbien.DESKTOP-6FMEAR7\Documents\GitHub\lab4\lab_fisica\Lab 4\Hertz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{079B1FE8-109D-4E9E-A806-EA4EB1282863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28765AF6-D9DA-4EAE-A43B-DBA116A93579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{76CE4366-23F8-4516-87DB-648EA8617E62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>VG2K</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>variable</t>
+  </si>
+  <si>
+    <t>volts</t>
+  </si>
+  <si>
+    <t>n=1</t>
+  </si>
+  <si>
+    <t>n=2</t>
+  </si>
+  <si>
+    <t>n=3</t>
+  </si>
+  <si>
+    <t>multiplos</t>
+  </si>
+  <si>
+    <t>Promedio</t>
   </si>
 </sst>
 </file>
@@ -1323,15 +1341,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552063</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108989</xdr:rowOff>
+      <xdr:colOff>422471</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>251410</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>33567</xdr:rowOff>
+      <xdr:colOff>121818</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1693,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6FD107-9AD8-408C-8A35-0998FB8C8B4F}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="147" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2250,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2243,7 +2261,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2254,7 +2272,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2287,7 +2305,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2297,8 +2315,23 @@
       <c r="C54">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54">
+        <v>69</v>
+      </c>
+      <c r="I54">
+        <v>57</v>
+      </c>
+      <c r="J54">
+        <v>45.5</v>
+      </c>
+      <c r="K54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2308,8 +2341,27 @@
       <c r="C55">
         <v>223</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>69</v>
+      </c>
+      <c r="H55">
+        <f>G55-H54</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>G55-I54</f>
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <f>I55-J54</f>
+        <v>-33.5</v>
+      </c>
+      <c r="K55">
+        <f>I55-K54</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2319,8 +2371,27 @@
       <c r="C56">
         <v>305</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>57</v>
+      </c>
+      <c r="H56">
+        <f>H54-G56</f>
+        <v>12</v>
+      </c>
+      <c r="I56">
+        <f xml:space="preserve"> G56-I54</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>J54-G56</f>
+        <v>-11.5</v>
+      </c>
+      <c r="K56">
+        <f>K54-G56</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2330,8 +2401,27 @@
       <c r="C57">
         <v>344</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>45.5</v>
+      </c>
+      <c r="H57">
+        <f xml:space="preserve"> H54-G57</f>
+        <v>23.5</v>
+      </c>
+      <c r="I57">
+        <f>I54-G57</f>
+        <v>11.5</v>
+      </c>
+      <c r="J57">
+        <f>G57-J54</f>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f>K54-G57</f>
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2341,8 +2431,27 @@
       <c r="C58">
         <v>372</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>34</v>
+      </c>
+      <c r="H58">
+        <f>H54-G58</f>
+        <v>35</v>
+      </c>
+      <c r="I58">
+        <f>I54-G58</f>
+        <v>23</v>
+      </c>
+      <c r="J58">
+        <f>J54-G58</f>
+        <v>11.5</v>
+      </c>
+      <c r="K58">
+        <f>K54-G58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -2353,7 +2462,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -2363,8 +2472,14 @@
       <c r="C60">
         <v>391</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -2374,8 +2489,30 @@
       <c r="C61">
         <v>359</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61">
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <v>11.5</v>
+      </c>
+      <c r="K61">
+        <v>11.5</v>
+      </c>
+      <c r="L61">
+        <v>11.5</v>
+      </c>
+      <c r="M61">
+        <f xml:space="preserve"> AVERAGE(H61:L61)</f>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -2385,8 +2522,24 @@
       <c r="C62">
         <v>326</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>23.5</v>
+      </c>
+      <c r="I62">
+        <v>23</v>
+      </c>
+      <c r="J62">
+        <v>23</v>
+      </c>
+      <c r="M62">
+        <f xml:space="preserve"> AVERAGE(H62:K62)/2</f>
+        <v>11.583333333333334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2395,6 +2548,19 @@
       </c>
       <c r="C63">
         <v>287</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>35</v>
+      </c>
+      <c r="I63">
+        <v>33.5</v>
+      </c>
+      <c r="M63">
+        <f xml:space="preserve"> AVERAGE(H63:I63)/3</f>
+        <v>11.416666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 4/Hertz/DataHertz.xlsx
+++ b/Lab 4/Hertz/DataHertz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbien.DESKTOP-6FMEAR7\Documents\GitHub\lab4\lab_fisica\Lab 4\Hertz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28765AF6-D9DA-4EAE-A43B-DBA116A93579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED5822-931B-497F-A91A-9306EA4F056B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{76CE4366-23F8-4516-87DB-648EA8617E62}"/>
   </bookViews>
@@ -24,9 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1713,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6FD107-9AD8-408C-8A35-0998FB8C8B4F}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="147" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61:M64"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="147" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
